--- a/src/main/java/resources/Data.xlsx
+++ b/src/main/java/resources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\002VIR744\Desktop\Gowtham\Alchemy\eclipse-workspace\Framework\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5FA329-4247-4EAE-94AF-31DA0EA86C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F3F6A-BD65-4E91-82F6-E81378EEEB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{57BE2B26-CAC1-4246-B5A6-6AA40FCBD0B9}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,19 +822,18 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="33.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>

--- a/src/main/java/resources/Data.xlsx
+++ b/src/main/java/resources/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\002VIR744\Desktop\Gowtham\Alchemy\eclipse-workspace\Framework\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F3F6A-BD65-4E91-82F6-E81378EEEB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00818D15-B996-435F-93FA-AC5D706FCD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{57BE2B26-CAC1-4246-B5A6-6AA40FCBD0B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{57BE2B26-CAC1-4246-B5A6-6AA40FCBD0B9}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>Testcase</t>
   </si>
@@ -131,9 +131,6 @@
     <t>000500132627</t>
   </si>
   <si>
-    <t>00458961</t>
-  </si>
-  <si>
     <t>Testing WO/SA</t>
   </si>
   <si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>aEi3Y000000TNB3SAO</t>
+  </si>
+  <si>
+    <t>00465466</t>
+  </si>
+  <si>
+    <t>Visibile</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D85434-FD51-4627-9BF8-E1105D400B43}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,28 +745,28 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -782,7 +785,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -796,10 +799,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -808,7 +811,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -821,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85276B4E-436A-4F90-BF90-16E086985847}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,152 +848,152 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>59</v>
-      </c>
-      <c r="P2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
       <c r="P3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
